--- a/data/trans_camb/P29_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-12,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,47</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 23,45</t>
+          <t>-26,83; 25,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 24,53</t>
+          <t>-28,24; 24,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 15,73</t>
+          <t>-37,83; 10,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 13,12</t>
+          <t>-11,81; 18,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 15,79</t>
+          <t>-16,29; 13,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 15,65</t>
+          <t>-9,29; 21,26</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,77; 17,84</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-14,98; 14,71</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-16,17; 11,94</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>43,49%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-7,18%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 115,46</t>
+          <t>-53,56; 110,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 119,72</t>
+          <t>-55,02; 98,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 126,12</t>
+          <t>-75,71; 52,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 110,37</t>
+          <t>-58,94; 234,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 83,48</t>
+          <t>-78,13; 184,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 84,23</t>
+          <t>-48,51; 271,85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-37,71; 103,69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-48,43; 84,63</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-51,67; 69,12</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>-11,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-22,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-9,15</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 12,65</t>
+          <t>-44,94; 14,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,89; 12,76</t>
+          <t>-43,08; 22,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 16,42</t>
+          <t>-55,39; 0,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 17,74</t>
+          <t>-13,05; 16,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 10,32</t>
+          <t>-14,61; 16,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 11,59</t>
+          <t>-10,09; 24,48</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-23,01; 9,42</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-25,83; 13,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-28,95; 5,45</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>-27,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-21,32%</t>
+          <t>-30,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>-61,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>-2,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>33,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-16,2%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-20,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-32,02%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 45,08</t>
+          <t>-74,6; 67,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 53,55</t>
+          <t>-81,52; 125,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 137,22</t>
+          <t>-92,48; 2,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 151,88</t>
+          <t>-54,04; 148,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 51,26</t>
+          <t>-61,14; 152,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,44; 54,14</t>
+          <t>-40,53; 224,54</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-59,24; 48,88</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-67,24; 71,5</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-69,1; 30,12</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-13,91</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>-13,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 6,38</t>
+          <t>-22,57; 13,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 0,99</t>
+          <t>-23,86; 11,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 12,3</t>
+          <t>-28,87; 3,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 12,28</t>
+          <t>-8,95; 8,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 6,19</t>
+          <t>-8,5; 10,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 3,28</t>
+          <t>-5,5; 12,69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; 7,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,0; 7,08</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-11,88; 6,91</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,45%</t>
+          <t>-13,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,78%</t>
+          <t>-17,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>-33,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,87%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-18,73%</t>
+          <t>29,08%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,38%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-6,81%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-9,9%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 22,08</t>
+          <t>-47,25; 43,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,14; 3,14</t>
+          <t>-50,49; 37,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 100,34</t>
+          <t>-62,22; 11,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 101,54</t>
+          <t>-52,16; 109,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 28,14</t>
+          <t>-47,99; 112,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 15,88</t>
+          <t>-34,2; 143,21</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-36,71; 43,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-39,66; 38,93</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-43,0; 36,9</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,05</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 16,31</t>
+          <t>-15,62; 9,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 18,86</t>
+          <t>-10,3; 17,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 16,77</t>
+          <t>-17,03; 8,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 15,72</t>
+          <t>-4,66; 14,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 14,13</t>
+          <t>-3,27; 17,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 14,72</t>
+          <t>-7,48; 11,8</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 8,98</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 14,59</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; 7,92</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>-13,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>-17,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>54,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,71%</t>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-3,3%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 107,36</t>
+          <t>-52,33; 55,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 120,89</t>
+          <t>-34,56; 100,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,57; 158,69</t>
+          <t>-57,99; 52,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 155,97</t>
+          <t>-28,46; 197,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,75; 103,01</t>
+          <t>-18,09; 221,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,57; 104,46</t>
+          <t>-42,06; 145,0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-30,59; 67,19</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-13,05; 103,58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-37,4; 56,92</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,68</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-8,97</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>8,58</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 11,02</t>
+          <t>-14,35; 15,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 24,59</t>
+          <t>-7,72; 26,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 10,22</t>
+          <t>-14,29; 16,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 9,38</t>
+          <t>-22,65; 8,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 6,77</t>
+          <t>-24,5; 5,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 15,27</t>
+          <t>-11,05; 25,09</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-13,82; 7,52</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,99; 12,49</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; 15,86</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-8,1%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>-30,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-41,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>39,69%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-9,25%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 61,17</t>
+          <t>-45,38; 94,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,1; 140,14</t>
+          <t>-22,79; 171,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 75,18</t>
+          <t>-45,75; 93,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 62,13</t>
+          <t>-77,72; 69,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 39,53</t>
+          <t>-81,02; 56,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 84,93</t>
+          <t>-37,28; 193,02</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-45,39; 44,82</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-34,68; 72,47</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-26,81; 92,12</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1712,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>12,94</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1401,12 +1732,27 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>14,36</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>10,32</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>10,12</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>12,66</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 22,48</t>
+          <t>-5,89; 29,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,64; 29,08</t>
+          <t>-5,05; 32,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 31,79</t>
+          <t>-4,8; 27,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 23,69</t>
+          <t>-8,37; 28,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 25,68</t>
+          <t>-10,12; 27,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 21,72</t>
+          <t>-4,04; 42,42</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 23,07</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 23,43</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 30,24</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>68,52%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>68,61%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>48,12%</t>
+          <t>57,47%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>56,03%</t>
+          <t>92,49%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>68,33%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>67,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>83,83%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 143,37</t>
+          <t>-33,79; 382,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3,25; 191,87</t>
+          <t>-29,41; 441,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 288,02</t>
+          <t>-31,16; 371,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 188,95</t>
+          <t>-42,82; 368,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 155,45</t>
+          <t>-53,95; 369,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 141,92</t>
+          <t>-37,68; 525,85</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 252,71</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-20,23; 247,08</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 344,86</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-8,04</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 6,39</t>
+          <t>-10,7; 6,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,9</t>
+          <t>-9,12; 9,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,18; 10,12</t>
+          <t>-17,6; -0,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 9,01</t>
+          <t>-2,77; 7,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,61</t>
+          <t>-3,49; 6,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 7,82</t>
+          <t>1,27; 14,06</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 5,34</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 7,03</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 5,05</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>-26,75%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>44,45%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 24,95</t>
+          <t>-30,76; 26,74</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 34,67</t>
+          <t>-26,58; 36,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,66; 67,89</t>
+          <t>-48,78; -0,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 58,96</t>
+          <t>-16,07; 57,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 32,23</t>
+          <t>-20,51; 51,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 36,89</t>
+          <t>5,5; 105,2</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-19,41; 26,78</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-15,39; 34,5</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 25,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
